--- a/Output/tableau_abondance_par_site.xlsx
+++ b/Output/tableau_abondance_par_site.xlsx
@@ -1,95 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/Output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_0E72FDCE8F79A8D366075C52F300B23104F189A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359F4B14-696E-4DCE-B35C-6B552F69FDB9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
-  <si>
-    <t>Sites</t>
-  </si>
-  <si>
-    <t>Espèces observées</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Parc Bonaert</t>
-  </si>
-  <si>
-    <t>Parc</t>
-  </si>
-  <si>
-    <t>Chasse Cambier</t>
-  </si>
-  <si>
-    <t>Potager</t>
-  </si>
-  <si>
-    <t>Siege social</t>
-  </si>
-  <si>
-    <t>Mel Legumes</t>
-  </si>
-  <si>
-    <t>Jardin Suspendu</t>
-  </si>
-  <si>
-    <t>Abbaye St-Denis</t>
-  </si>
-  <si>
-    <t>Jean d'Avesnes</t>
-  </si>
-  <si>
-    <t>Rue de l'Egalite</t>
-  </si>
-  <si>
-    <t>Fond du petit marais</t>
-  </si>
-  <si>
-    <t>Parc du bois de Mons</t>
-  </si>
-  <si>
-    <t>Parc du Beffroi</t>
-  </si>
-  <si>
-    <t>Gourmandes de la Procession</t>
-  </si>
-  <si>
-    <t>Stievenart</t>
-  </si>
-  <si>
-    <t>Ecole de l'Esperance</t>
-  </si>
-  <si>
-    <t>Village des abeilles</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -191,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,202 +350,463 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sites</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus observées</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre d'espèces observées</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>N0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Parc Bonaert</t>
+        </is>
       </c>
       <c r="B2">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Parc</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chasse Cambier</t>
+        </is>
       </c>
       <c r="B3">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mel Legumes</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Siege social</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Parc</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Abbaye St-Denis</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jean d'Avesnes</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>108</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jardin Suspendu</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rue de l'Egalite</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fond du petit marais</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>119</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Parc du bois de Mons</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Parc du Beffroi</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>129</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Parc</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gourmandes de la Procession</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>135</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Stievenart</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>140</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>126</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>135</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Parc</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ecole de l'Esperance</t>
+        </is>
       </c>
       <c r="B15">
         <v>158</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Potager</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Village des abeilles</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>266</v>
+      </c>
+      <c r="C16">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>262</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Parc</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="B17">
-        <v>1754</v>
+        <v>1791</v>
       </c>
     </row>
   </sheetData>

--- a/Output/tableau_abondance_par_site.xlsx
+++ b/Output/tableau_abondance_par_site.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
       <c r="F2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,16 +428,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -455,13 +455,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -586,23 +586,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rue de l'Egalite</t>
+          <t>Fond du petit marais</t>
         </is>
       </c>
       <c r="B9">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
         <v>7</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -613,23 +613,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fond du petit marais</t>
+          <t>Rue de l'Egalite</t>
         </is>
       </c>
       <c r="B10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -667,74 +667,74 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Parc du Beffroi</t>
+          <t>Gourmandes de la Procession</t>
         </is>
       </c>
       <c r="B12">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Parc</t>
+          <t>Potager</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gourmandes de la Procession</t>
+          <t>Stievenart</t>
         </is>
       </c>
       <c r="B13">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Potager</t>
+          <t>Parc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Stievenart</t>
+          <t>Parc du Beffroi</t>
         </is>
       </c>
       <c r="B14">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>1791</v>
+        <v>1903</v>
       </c>
     </row>
   </sheetData>

--- a/Output/tableau_abondance_par_site.xlsx
+++ b/Output/tableau_abondance_par_site.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nombre d'individus observées</t>
+          <t>abon</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nombre d'espèces observées</t>
+          <t>N0</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>N0</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -407,15 +402,12 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>19</v>
-      </c>
-      <c r="F2">
         <v>13</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Parc</t>
         </is>
@@ -434,15 +426,12 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -461,15 +450,12 @@
         <v>31</v>
       </c>
       <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -488,15 +474,12 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5" t="inlineStr">
+        <v>17</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Parc</t>
         </is>
@@ -515,15 +498,12 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -542,15 +522,12 @@
         <v>31</v>
       </c>
       <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -569,15 +546,12 @@
         <v>41</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8" t="inlineStr">
+        <v>21</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -596,15 +570,12 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -617,21 +588,18 @@
         </is>
       </c>
       <c r="B10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -650,15 +618,12 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11" t="inlineStr">
+        <v>11</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -677,15 +642,12 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12" t="inlineStr">
+        <v>14</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -704,15 +666,12 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Parc</t>
         </is>
@@ -731,15 +690,12 @@
         <v>41</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14" t="inlineStr">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Parc</t>
         </is>
@@ -758,15 +714,12 @@
         <v>39</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Potager</t>
         </is>
@@ -785,15 +738,12 @@
         <v>44</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Parc</t>
         </is>
@@ -806,7 +756,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
   </sheetData>

--- a/Output/tableau_abondance_par_site.xlsx
+++ b/Output/tableau_abondance_par_site.xlsx
@@ -1,21 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/Output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_8D62FDCE8F79A8D366075C52F3DFEA760975ADBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FC5E07D-E120-4429-88DD-3C72EFE25720}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+  <si>
+    <t>Sites</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Parc Bonaert</t>
+  </si>
+  <si>
+    <t>Parc</t>
+  </si>
+  <si>
+    <t>Chasse Cambier</t>
+  </si>
+  <si>
+    <t>Potager</t>
+  </si>
+  <si>
+    <t>Mel Legumes</t>
+  </si>
+  <si>
+    <t>Siege social</t>
+  </si>
+  <si>
+    <t>Abbaye St-Denis</t>
+  </si>
+  <si>
+    <t>Jean d'Avesnes</t>
+  </si>
+  <si>
+    <t>Jardin Suspendu</t>
+  </si>
+  <si>
+    <t>Fond du petit marais</t>
+  </si>
+  <si>
+    <t>Rue de l'Egalite</t>
+  </si>
+  <si>
+    <t>Parc du bois de Mons</t>
+  </si>
+  <si>
+    <t>Stievenart</t>
+  </si>
+  <si>
+    <t>Parc du Beffroi</t>
+  </si>
+  <si>
+    <t>Ecole de l'Esperance</t>
+  </si>
+  <si>
+    <t>Village des abeilles</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Richesse</t>
+  </si>
+  <si>
+    <t>Abondance</t>
+  </si>
+  <si>
+    <t>Gourmandes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,12 +109,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC48300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,17 +141,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC48300"/>
+      <color rgb="FF996633"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +246,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +298,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,50 +491,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sites</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>abon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>N0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Parc Bonaert</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>39</v>
@@ -401,23 +529,13 @@
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Parc</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chasse Cambier</t>
-        </is>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -425,23 +543,13 @@
       <c r="C3">
         <v>23</v>
       </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mel Legumes</t>
-        </is>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>107</v>
@@ -449,23 +557,13 @@
       <c r="C4">
         <v>31</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Siege social</t>
-        </is>
       </c>
       <c r="B5">
         <v>108</v>
@@ -473,23 +571,13 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parc</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Abbaye St-Denis</t>
-        </is>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>109</v>
@@ -497,23 +585,13 @@
       <c r="C6">
         <v>25</v>
       </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Jean d'Avesnes</t>
-        </is>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
         <v>111</v>
@@ -521,23 +599,13 @@
       <c r="C7">
         <v>31</v>
       </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jardin Suspendu</t>
-        </is>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>118</v>
@@ -545,23 +613,13 @@
       <c r="C8">
         <v>41</v>
       </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>21</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Fond du petit marais</t>
-        </is>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>120</v>
@@ -569,47 +627,27 @@
       <c r="C9">
         <v>36</v>
       </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Rue de l'Egalite</t>
-        </is>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>31</v>
       </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Parc du bois de Mons</t>
-        </is>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
         <v>132</v>
@@ -617,23 +655,13 @@
       <c r="C11">
         <v>38</v>
       </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Gourmandes de la Procession</t>
-        </is>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
         <v>144</v>
@@ -641,23 +669,13 @@
       <c r="C12">
         <v>37</v>
       </c>
-      <c r="D12">
-        <v>22</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Stievenart</t>
-        </is>
       </c>
       <c r="B13">
         <v>144</v>
@@ -665,23 +683,13 @@
       <c r="C13">
         <v>38</v>
       </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Parc</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Parc du Beffroi</t>
-        </is>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
         <v>147</v>
@@ -689,23 +697,13 @@
       <c r="C14">
         <v>41</v>
       </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Parc</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Ecole de l'Esperance</t>
-        </is>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
         <v>166</v>
@@ -713,23 +711,13 @@
       <c r="C15">
         <v>39</v>
       </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Potager</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Village des abeilles</t>
-        </is>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
         <v>273</v>
@@ -737,29 +725,43 @@
       <c r="C16">
         <v>44</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Parc</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
       <c r="B17">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/tableau_abondance_par_site.xlsx
+++ b/Output/tableau_abondance_par_site.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_8D62FDCE8F79A8D366075C52F3DFEA760975ADBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FC5E07D-E120-4429-88DD-3C72EFE25720}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_8D62FDCE8F79A8D366075C52F3DFEA760975ADBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{693B6857-D354-4D65-8218-4C53AB0B1BC8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,9 @@
     <t>Parc Bonaert</t>
   </si>
   <si>
-    <t>Parc</t>
-  </si>
-  <si>
     <t>Chasse Cambier</t>
   </si>
   <si>
-    <t>Potager</t>
-  </si>
-  <si>
     <t>Mel Legumes</t>
   </si>
   <si>
@@ -79,13 +73,19 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Richesse</t>
-  </si>
-  <si>
-    <t>Abondance</t>
-  </si>
-  <si>
     <t>Gourmandes</t>
+  </si>
+  <si>
+    <t>Abundance</t>
+  </si>
+  <si>
+    <t>Richness</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Garden</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
@@ -530,12 +530,12 @@
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -544,12 +544,12 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>107</v>
@@ -558,12 +558,12 @@
         <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>108</v>
@@ -572,12 +572,12 @@
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>109</v>
@@ -586,12 +586,12 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>111</v>
@@ -600,12 +600,12 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>118</v>
@@ -614,12 +614,12 @@
         <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>120</v>
@@ -628,12 +628,12 @@
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>122</v>
@@ -642,12 +642,12 @@
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>132</v>
@@ -656,12 +656,12 @@
         <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>144</v>
@@ -670,12 +670,12 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>144</v>
@@ -684,12 +684,12 @@
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>147</v>
@@ -698,12 +698,12 @@
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>166</v>
@@ -712,12 +712,12 @@
         <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>273</v>
@@ -726,12 +726,12 @@
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1903</v>
